--- a/src/main/resources/excels/ShopModel.xlsx
+++ b/src/main/resources/excels/ShopModel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="247">
   <si>
     <t>序列</t>
   </si>
@@ -742,6 +742,63 @@
   </si>
   <si>
     <t>装满生命能源库的100%</t>
+  </si>
+  <si>
+    <t>HFT0013</t>
+  </si>
+  <si>
+    <t>HFT0014</t>
+  </si>
+  <si>
+    <t>对空弹射炸弹</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对空穿甲弹</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFT0013</t>
+  </si>
+  <si>
+    <t>PFT0014</t>
+  </si>
+  <si>
+    <t>对空飞刃炸弹</t>
+  </si>
+  <si>
+    <t>对空破甲弹</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZFT0013</t>
+  </si>
+  <si>
+    <t>ZFT0014</t>
+  </si>
+  <si>
+    <t>对空震天雷虫</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对空赤甲虫</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>THFZ0001</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦兵工厂</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>THFZ0002</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭者王座</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1001,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1131,6 +1188,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1178,7 +1270,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1309,18 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1776,8 +1880,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I97" tableType="xml" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9" connectionId="1">
-  <autoFilter ref="A3:I97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I105" tableType="xml" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9" connectionId="1">
+  <autoFilter ref="A3:I105"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="orderId" name="orderId" dataDxfId="8">
       <xmlColumnPr mapId="1" xpath="/ArrayOfShopModel/ShopModel/orderId" xmlDataType="string"/>
@@ -2074,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IS97"/>
+  <dimension ref="A1:IS105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3282,65 +3386,65 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="6">
-        <v>5</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="6">
-        <v>99985</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="5">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="5">
+        <v>16101</v>
+      </c>
+      <c r="I42" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="6">
-        <v>5</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="6">
-        <v>99984</v>
-      </c>
-      <c r="I43" s="6">
-        <v>2</v>
+        <v>232</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="5">
+        <v>16201</v>
+      </c>
+      <c r="I43" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>18</v>
@@ -3352,7 +3456,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F44" s="6">
         <v>5</v>
@@ -3361,73 +3465,73 @@
         <v>205</v>
       </c>
       <c r="H44" s="6">
-        <v>99983</v>
+        <v>99985</v>
       </c>
       <c r="I44" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F45" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H45" s="6">
-        <v>98999</v>
+        <v>99984</v>
       </c>
       <c r="I45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F46" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H46" s="6">
-        <v>98998</v>
+        <v>99983</v>
       </c>
       <c r="I46" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>18</v>
@@ -3439,7 +3543,7 @@
         <v>102</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F47" s="6">
         <v>6</v>
@@ -3448,15 +3552,15 @@
         <v>206</v>
       </c>
       <c r="H47" s="6">
-        <v>98997</v>
+        <v>98999</v>
       </c>
       <c r="I47" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>18</v>
@@ -3468,7 +3572,7 @@
         <v>102</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F48" s="6">
         <v>6</v>
@@ -3477,15 +3581,15 @@
         <v>206</v>
       </c>
       <c r="H48" s="6">
-        <v>98996</v>
+        <v>98998</v>
       </c>
       <c r="I48" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>18</v>
@@ -3497,7 +3601,7 @@
         <v>102</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F49" s="6">
         <v>6</v>
@@ -3506,73 +3610,73 @@
         <v>206</v>
       </c>
       <c r="H49" s="6">
-        <v>98995</v>
+        <v>98997</v>
       </c>
       <c r="I49" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H50" s="5">
-        <v>21001</v>
-      </c>
-      <c r="I50" s="5">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="6">
+        <v>6</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="6">
+        <v>98996</v>
+      </c>
+      <c r="I50" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="5">
-        <v>21201</v>
-      </c>
-      <c r="I51" s="5">
-        <v>2</v>
+        <v>110</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="6">
+        <v>6</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" s="6">
+        <v>98995</v>
+      </c>
+      <c r="I51" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>113</v>
@@ -3584,7 +3688,7 @@
         <v>45</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
@@ -3593,15 +3697,15 @@
         <v>207</v>
       </c>
       <c r="H52" s="5">
-        <v>23801</v>
+        <v>21001</v>
       </c>
       <c r="I52" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>113</v>
@@ -3613,7 +3717,7 @@
         <v>45</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -3622,15 +3726,15 @@
         <v>207</v>
       </c>
       <c r="H53" s="5">
-        <v>23901</v>
+        <v>21201</v>
       </c>
       <c r="I53" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>113</v>
@@ -3642,7 +3746,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -3651,15 +3755,15 @@
         <v>207</v>
       </c>
       <c r="H54" s="5">
-        <v>21301</v>
+        <v>23801</v>
       </c>
       <c r="I54" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>113</v>
@@ -3671,7 +3775,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
@@ -3680,73 +3784,73 @@
         <v>207</v>
       </c>
       <c r="H55" s="5">
-        <v>27301</v>
+        <v>23901</v>
       </c>
       <c r="I55" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H56" s="5">
-        <v>20201</v>
+        <v>21301</v>
       </c>
       <c r="I56" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H57" s="5">
-        <v>20301</v>
+        <v>27301</v>
       </c>
       <c r="I57" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>113</v>
@@ -3758,7 +3862,7 @@
         <v>59</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F58" s="5">
         <v>3</v>
@@ -3767,15 +3871,15 @@
         <v>203</v>
       </c>
       <c r="H58" s="5">
-        <v>20501</v>
+        <v>20201</v>
       </c>
       <c r="I58" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>113</v>
@@ -3787,7 +3891,7 @@
         <v>59</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F59" s="5">
         <v>3</v>
@@ -3796,15 +3900,15 @@
         <v>203</v>
       </c>
       <c r="H59" s="5">
-        <v>20601</v>
+        <v>20301</v>
       </c>
       <c r="I59" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="12" t="s">
-        <v>220</v>
+      <c r="A60" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>113</v>
@@ -3816,7 +3920,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="F60" s="5">
         <v>3</v>
@@ -3825,15 +3929,15 @@
         <v>203</v>
       </c>
       <c r="H60" s="5">
-        <v>25001</v>
+        <v>20501</v>
       </c>
       <c r="I60" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="12" t="s">
-        <v>221</v>
+      <c r="A61" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>113</v>
@@ -3845,7 +3949,7 @@
         <v>59</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="F61" s="5">
         <v>3</v>
@@ -3854,73 +3958,73 @@
         <v>203</v>
       </c>
       <c r="H61" s="5">
-        <v>25101</v>
+        <v>20601</v>
       </c>
       <c r="I61" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="F62" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H62" s="5">
-        <v>21801</v>
+        <v>25001</v>
       </c>
       <c r="I62" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="11" t="s">
-        <v>133</v>
+      <c r="A63" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="F63" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H63" s="5">
-        <v>21901</v>
+        <v>25101</v>
       </c>
       <c r="I63" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="11" t="s">
-        <v>135</v>
+      <c r="A64" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>113</v>
@@ -3932,7 +4036,7 @@
         <v>68</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F64" s="5">
         <v>4</v>
@@ -3941,15 +4045,15 @@
         <v>208</v>
       </c>
       <c r="H64" s="5">
-        <v>21601</v>
+        <v>21801</v>
       </c>
       <c r="I64" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>113</v>
@@ -3961,7 +4065,7 @@
         <v>68</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F65" s="5">
         <v>4</v>
@@ -3970,15 +4074,15 @@
         <v>208</v>
       </c>
       <c r="H65" s="5">
-        <v>22001</v>
+        <v>21901</v>
       </c>
       <c r="I65" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>113</v>
@@ -3990,7 +4094,7 @@
         <v>68</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F66" s="5">
         <v>4</v>
@@ -3999,15 +4103,15 @@
         <v>208</v>
       </c>
       <c r="H66" s="5">
-        <v>21501</v>
+        <v>21601</v>
       </c>
       <c r="I66" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>113</v>
@@ -4019,7 +4123,7 @@
         <v>68</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F67" s="5">
         <v>4</v>
@@ -4028,15 +4132,15 @@
         <v>208</v>
       </c>
       <c r="H67" s="5">
-        <v>21701</v>
+        <v>22001</v>
       </c>
       <c r="I67" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>113</v>
@@ -4048,7 +4152,7 @@
         <v>68</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F68" s="5">
         <v>4</v>
@@ -4057,15 +4161,15 @@
         <v>208</v>
       </c>
       <c r="H68" s="5">
-        <v>26001</v>
+        <v>21501</v>
       </c>
       <c r="I68" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>113</v>
@@ -4077,7 +4181,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F69" s="5">
         <v>4</v>
@@ -4086,15 +4190,15 @@
         <v>208</v>
       </c>
       <c r="H69" s="5">
-        <v>22101</v>
+        <v>21701</v>
       </c>
       <c r="I69" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>113</v>
@@ -4106,7 +4210,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F70" s="5">
         <v>4</v>
@@ -4115,15 +4219,15 @@
         <v>208</v>
       </c>
       <c r="H70" s="5">
-        <v>22201</v>
+        <v>26001</v>
       </c>
       <c r="I70" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>113</v>
@@ -4135,7 +4239,7 @@
         <v>68</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F71" s="5">
         <v>4</v>
@@ -4144,15 +4248,15 @@
         <v>208</v>
       </c>
       <c r="H71" s="5">
-        <v>22301</v>
+        <v>22101</v>
       </c>
       <c r="I71" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>113</v>
@@ -4164,7 +4268,7 @@
         <v>68</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F72" s="5">
         <v>4</v>
@@ -4173,15 +4277,15 @@
         <v>208</v>
       </c>
       <c r="H72" s="5">
-        <v>22401</v>
+        <v>22201</v>
       </c>
       <c r="I72" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>113</v>
@@ -4193,7 +4297,7 @@
         <v>68</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F73" s="5">
         <v>4</v>
@@ -4202,131 +4306,131 @@
         <v>208</v>
       </c>
       <c r="H73" s="5">
-        <v>22501</v>
+        <v>22301</v>
       </c>
       <c r="I73" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F74" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H74" s="5">
-        <v>31001</v>
+        <v>22401</v>
       </c>
       <c r="I74" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F75" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H75" s="5">
-        <v>31201</v>
+        <v>22501</v>
       </c>
       <c r="I75" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="11" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="F76" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H76" s="5">
-        <v>33801</v>
+        <v>26101</v>
       </c>
       <c r="I76" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="11" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="F77" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H77" s="5">
-        <v>33901</v>
+        <v>20101</v>
       </c>
       <c r="I77" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>156</v>
@@ -4338,7 +4442,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F78" s="5">
         <v>2</v>
@@ -4347,15 +4451,15 @@
         <v>209</v>
       </c>
       <c r="H78" s="5">
-        <v>31301</v>
+        <v>31001</v>
       </c>
       <c r="I78" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>156</v>
@@ -4367,7 +4471,7 @@
         <v>45</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F79" s="5">
         <v>2</v>
@@ -4376,36 +4480,36 @@
         <v>209</v>
       </c>
       <c r="H79" s="5">
-        <v>37301</v>
+        <v>31201</v>
       </c>
       <c r="I79" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F80" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H80" s="5">
-        <v>30201</v>
+        <v>33801</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4413,97 +4517,97 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F81" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H81" s="5">
-        <v>30301</v>
+        <v>33901</v>
       </c>
       <c r="I81" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F82" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H82" s="5">
-        <v>30501</v>
+        <v>31301</v>
       </c>
       <c r="I82" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F83" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H83" s="5">
-        <v>30601</v>
+        <v>37301</v>
       </c>
       <c r="I83" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="12" t="s">
-        <v>222</v>
+      <c r="A84" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>58</v>
@@ -4512,24 +4616,24 @@
         <v>59</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F84" s="5">
         <v>3</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H84" s="5">
-        <v>35001</v>
+        <v>30201</v>
       </c>
       <c r="I84" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="12" t="s">
-        <v>223</v>
+      <c r="A85" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>156</v>
@@ -4541,140 +4645,140 @@
         <v>59</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="F85" s="5">
         <v>3</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H85" s="5">
-        <v>35101</v>
+        <v>30301</v>
       </c>
       <c r="I85" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F86" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H86" s="5">
-        <v>31801</v>
+        <v>30501</v>
       </c>
       <c r="I86" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F87" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H87" s="5">
-        <v>31901</v>
+        <v>30601</v>
       </c>
       <c r="I87" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="11" t="s">
-        <v>180</v>
+      <c r="A88" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="F88" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H88" s="5">
-        <v>31601</v>
+        <v>35001</v>
       </c>
       <c r="I88" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="11" t="s">
-        <v>182</v>
+      <c r="A89" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="F89" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H89" s="5">
-        <v>32001</v>
+        <v>35101</v>
       </c>
       <c r="I89" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>156</v>
@@ -4686,7 +4790,7 @@
         <v>68</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
@@ -4695,15 +4799,15 @@
         <v>208</v>
       </c>
       <c r="H90" s="5">
-        <v>31501</v>
+        <v>31801</v>
       </c>
       <c r="I90" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>156</v>
@@ -4715,7 +4819,7 @@
         <v>68</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
@@ -4724,15 +4828,15 @@
         <v>208</v>
       </c>
       <c r="H91" s="5">
-        <v>31701</v>
+        <v>31901</v>
       </c>
       <c r="I91" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>156</v>
@@ -4744,7 +4848,7 @@
         <v>68</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F92" s="5">
         <v>4</v>
@@ -4753,15 +4857,15 @@
         <v>208</v>
       </c>
       <c r="H92" s="5">
-        <v>36001</v>
+        <v>31601</v>
       </c>
       <c r="I92" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>156</v>
@@ -4773,7 +4877,7 @@
         <v>68</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F93" s="5">
         <v>4</v>
@@ -4782,15 +4886,15 @@
         <v>208</v>
       </c>
       <c r="H93" s="5">
-        <v>32101</v>
+        <v>32001</v>
       </c>
       <c r="I93" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>156</v>
@@ -4802,7 +4906,7 @@
         <v>68</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F94" s="5">
         <v>4</v>
@@ -4811,15 +4915,15 @@
         <v>208</v>
       </c>
       <c r="H94" s="5">
-        <v>32201</v>
+        <v>31501</v>
       </c>
       <c r="I94" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>156</v>
@@ -4831,7 +4935,7 @@
         <v>68</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F95" s="5">
         <v>4</v>
@@ -4840,15 +4944,15 @@
         <v>208</v>
       </c>
       <c r="H95" s="5">
-        <v>32301</v>
+        <v>31701</v>
       </c>
       <c r="I95" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>156</v>
@@ -4860,7 +4964,7 @@
         <v>68</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F96" s="5">
         <v>4</v>
@@ -4869,15 +4973,15 @@
         <v>208</v>
       </c>
       <c r="H96" s="5">
-        <v>32401</v>
+        <v>36001</v>
       </c>
       <c r="I96" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>156</v>
@@ -4889,7 +4993,7 @@
         <v>68</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F97" s="5">
         <v>4</v>
@@ -4898,10 +5002,242 @@
         <v>208</v>
       </c>
       <c r="H97" s="5">
+        <v>32101</v>
+      </c>
+      <c r="I97" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" s="5">
+        <v>4</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" s="5">
+        <v>32201</v>
+      </c>
+      <c r="I98" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="5">
+        <v>4</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" s="5">
+        <v>32301</v>
+      </c>
+      <c r="I99" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="5">
+        <v>4</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H100" s="5">
+        <v>32401</v>
+      </c>
+      <c r="I100" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101" s="5">
+        <v>4</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H101" s="5">
         <v>32501</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I101" s="5">
         <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F102" s="5">
+        <v>4</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H102" s="5">
+        <v>36101</v>
+      </c>
+      <c r="I102" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F103" s="5">
+        <v>4</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H103" s="5">
+        <v>36201</v>
+      </c>
+      <c r="I103" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="13">
+        <v>2</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H104" s="13">
+        <v>61201</v>
+      </c>
+      <c r="I104" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F105" s="13">
+        <v>2</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" s="13">
+        <v>63701</v>
+      </c>
+      <c r="I105" s="14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
